--- a/交流管理/项目周报/饶培育周报.xlsx
+++ b/交流管理/项目周报/饶培育周报.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="95">
   <si>
     <t>完成率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,23 +312,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协助团队成员研究通知服务系统需求分析，并编写技术方案文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理AR项目，并编写项目操作手册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用阿里云图像识别服务，实现技术原型</t>
+    <t>1.研究sso白名单设计方案2.协助团队成员完成API网关调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.研究sso改造方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.编写sso白名单代码 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.研究sso获取域名方法，建白名单表，以及完善代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习研究正则表达式，修改项目bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -437,20 +449,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -477,7 +480,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1881,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1930,7 +1934,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>66</v>
@@ -1941,8 +1945,8 @@
       <c r="D2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>91</v>
+      <c r="E2" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>72</v>
@@ -1951,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>20171023</v>
+        <v>20171027</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>87</v>
@@ -1959,7 +1963,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>66</v>
@@ -1971,7 +1975,7 @@
         <v>86</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>72</v>
@@ -1980,15 +1984,15 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>20171020</v>
+        <v>20171027</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4">
-        <v>438</v>
+      <c r="A4" s="1">
+        <v>441</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>66</v>
@@ -1999,8 +2003,8 @@
       <c r="D4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>89</v>
+      <c r="E4" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>72</v>
@@ -2008,11 +2012,69 @@
       <c r="G4" s="6">
         <v>1</v>
       </c>
-      <c r="H4">
-        <v>20171022</v>
+      <c r="H4" s="1">
+        <v>20171027</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>445</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>20171027</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>445</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>20171027</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
